--- a/DungeonShooting_Godot/excel/AiAttackAttr.xlsx
+++ b/DungeonShooting_Godot/excel/AiAttackAttr.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -93,6 +106,9 @@
     <t>0001</t>
   </si>
   <si>
+    <t>步枪</t>
+  </si>
+  <si>
     <t>TRUE</t>
   </si>
   <si>
@@ -102,9 +118,15 @@
     <t>0002</t>
   </si>
   <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
     <t>0003</t>
   </si>
   <si>
+    <t>手枪</t>
+  </si>
+  <si>
     <t>0004</t>
   </si>
   <si>
@@ -130,12 +152,18 @@
   </si>
   <si>
     <t>榴弹炮</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>Weapon0010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1072,22 +1100,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.8166666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.1272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.8181818181818" style="2" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.8166666666667" style="2" customWidth="1"/>
-    <col min="6" max="8" width="22.2333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.9416666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.4416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.8181818181818" style="2" customWidth="1"/>
+    <col min="6" max="8" width="22.2363636363636" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.9454545454545" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.4454545454545" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1" spans="1:10">
@@ -1190,15 +1218,17 @@
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -1218,17 +1248,19 @@
     </row>
     <row r="5" ht="37" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -1248,16 +1280,19 @@
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1277,19 +1312,19 @@
     </row>
     <row r="7" ht="40" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2">
         <v>0.7</v>
@@ -1309,19 +1344,19 @@
     </row>
     <row r="8" ht="40" customHeight="1" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>1.5</v>
@@ -1341,16 +1376,16 @@
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2">
         <v>0.5</v>
@@ -1370,13 +1405,13 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="45" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>1</v>
@@ -1402,13 +1437,13 @@
     </row>
     <row r="11" ht="36" customHeight="1" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="b">
         <v>1</v>
@@ -1429,6 +1464,38 @@
         <v>0.8</v>
       </c>
       <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="36" customHeight="1" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1448,7 +1515,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1465,7 +1532,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/AiAttackAttr.xlsx
+++ b/DungeonShooting_Godot/excel/AiAttackAttr.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowWidth="29400" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -142,6 +129,9 @@
     <t>0006</t>
   </si>
   <si>
+    <t>汤姆逊</t>
+  </si>
+  <si>
     <t>0007</t>
   </si>
   <si>
@@ -157,7 +147,7 @@
     <t>0009</t>
   </si>
   <si>
-    <t>Weapon0010</t>
+    <t>M1型热能狙击枪</t>
   </si>
 </sst>
 </file>
@@ -1103,19 +1093,23 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="13.1272727272727" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.8181818181818" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.8173076923077" style="2" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.8727272727273" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.8181818181818" style="2" customWidth="1"/>
-    <col min="6" max="8" width="22.2363636363636" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.9454545454545" style="1" customWidth="1"/>
-    <col min="10" max="10" width="35.4454545454545" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.8173076923077" style="2" customWidth="1"/>
+    <col min="6" max="8" width="22.2403846153846" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.9423076923077" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.4423076923077" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1" spans="1:10">
@@ -1231,7 +1225,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1240,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1263,7 +1257,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -1272,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -1295,7 +1289,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1304,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -1327,7 +1321,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="2">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1336,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -1359,16 +1353,16 @@
         <v>24</v>
       </c>
       <c r="F8" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -1378,6 +1372,9 @@
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1391,13 +1388,13 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1405,10 +1402,10 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="45" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
@@ -1420,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="G10" s="1">
         <v>0.5</v>
@@ -1437,10 +1434,10 @@
     </row>
     <row r="11" ht="36" customHeight="1" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>24</v>
@@ -1452,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="G11" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H11" s="1" t="b">
         <v>1</v>
@@ -1469,10 +1466,10 @@
     </row>
     <row r="12" ht="36" customHeight="1" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>24</v>
@@ -1484,16 +1481,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="G12" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1515,7 +1512,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1532,7 +1529,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
